--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -7363,6 +7363,40 @@
         <v>123783</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2021-03-04</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>4201358</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6573</v>
+      </c>
+      <c r="G205" t="n">
+        <v>242</v>
+      </c>
+      <c r="H205" t="n">
+        <v>124025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,10 +414,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7397,6 +7397,584 @@
         <v>124025</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2021-03-05</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>4207304</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5947</v>
+      </c>
+      <c r="G206" t="n">
+        <v>236</v>
+      </c>
+      <c r="H206" t="n">
+        <v>124261</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2021-03-06</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>4213343</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6040</v>
+      </c>
+      <c r="G207" t="n">
+        <v>158</v>
+      </c>
+      <c r="H207" t="n">
+        <v>124419</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2021-03-07</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>4218520</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5177</v>
+      </c>
+      <c r="G208" t="n">
+        <v>82</v>
+      </c>
+      <c r="H208" t="n">
+        <v>124501</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2021-03-08</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4223232</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4712</v>
+      </c>
+      <c r="G209" t="n">
+        <v>65</v>
+      </c>
+      <c r="H209" t="n">
+        <v>124566</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2021-03-09</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>4228998</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5766</v>
+      </c>
+      <c r="G210" t="n">
+        <v>231</v>
+      </c>
+      <c r="H210" t="n">
+        <v>124797</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2021-03-10</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>4234924</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5926</v>
+      </c>
+      <c r="G211" t="n">
+        <v>190</v>
+      </c>
+      <c r="H211" t="n">
+        <v>124987</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>4241677</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6753</v>
+      </c>
+      <c r="G212" t="n">
+        <v>181</v>
+      </c>
+      <c r="H212" t="n">
+        <v>125168</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2021-03-12</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>4248286</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6609</v>
+      </c>
+      <c r="G213" t="n">
+        <v>175</v>
+      </c>
+      <c r="H213" t="n">
+        <v>125343</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2021-03-13</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>4253820</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5534</v>
+      </c>
+      <c r="G214" t="n">
+        <v>121</v>
+      </c>
+      <c r="H214" t="n">
+        <v>125464</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2021-03-14</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>4258438</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4618</v>
+      </c>
+      <c r="G215" t="n">
+        <v>52</v>
+      </c>
+      <c r="H215" t="n">
+        <v>125516</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>4263527</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5089</v>
+      </c>
+      <c r="G216" t="n">
+        <v>64</v>
+      </c>
+      <c r="H216" t="n">
+        <v>125580</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>4268821</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5294</v>
+      </c>
+      <c r="G217" t="n">
+        <v>110</v>
+      </c>
+      <c r="H217" t="n">
+        <v>125690</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>4274579</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5758</v>
+      </c>
+      <c r="G218" t="n">
+        <v>141</v>
+      </c>
+      <c r="H218" t="n">
+        <v>125831</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>4280882</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6303</v>
+      </c>
+      <c r="G219" t="n">
+        <v>95</v>
+      </c>
+      <c r="H219" t="n">
+        <v>125926</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2021-03-19</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>4285684</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4802</v>
+      </c>
+      <c r="G220" t="n">
+        <v>101</v>
+      </c>
+      <c r="H220" t="n">
+        <v>126026</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2021-03-20</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>4291271</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5587</v>
+      </c>
+      <c r="G221" t="n">
+        <v>96</v>
+      </c>
+      <c r="H221" t="n">
+        <v>126122</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>4296583</v>
+      </c>
+      <c r="F222" t="n">
+        <v>5312</v>
+      </c>
+      <c r="G222" t="n">
+        <v>33</v>
+      </c>
+      <c r="H222" t="n">
+        <v>126155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
       <selection activeCell="A208" sqref="A208"/>
@@ -7975,6 +7975,108 @@
         <v>126155</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2021-03-22</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>4301925</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5342</v>
+      </c>
+      <c r="G223" t="n">
+        <v>17</v>
+      </c>
+      <c r="H223" t="n">
+        <v>126172</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>4307304</v>
+      </c>
+      <c r="F224" t="n">
+        <v>5379</v>
+      </c>
+      <c r="G224" t="n">
+        <v>112</v>
+      </c>
+      <c r="H224" t="n">
+        <v>126284</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>4312908</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5605</v>
+      </c>
+      <c r="G225" t="n">
+        <v>98</v>
+      </c>
+      <c r="H225" t="n">
+        <v>126382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8145,6 +8145,74 @@
         <v>126515</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2021-03-27</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>4329180</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4715</v>
+      </c>
+      <c r="G228" t="n">
+        <v>58</v>
+      </c>
+      <c r="H228" t="n">
+        <v>126573</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2021-03-28</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>4333042</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3862</v>
+      </c>
+      <c r="G229" t="n">
+        <v>19</v>
+      </c>
+      <c r="H229" t="n">
+        <v>126592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8213,6 +8213,40 @@
         <v>126592</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>4337696</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4654</v>
+      </c>
+      <c r="G230" t="n">
+        <v>23</v>
+      </c>
+      <c r="H230" t="n">
+        <v>126615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8247,6 +8247,40 @@
         <v>126615</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2021-03-30</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>4341736</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4040</v>
+      </c>
+      <c r="G231" t="n">
+        <v>56</v>
+      </c>
+      <c r="H231" t="n">
+        <v>126670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8281,6 +8281,40 @@
         <v>126670</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>4345788</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4052</v>
+      </c>
+      <c r="G232" t="n">
+        <v>43</v>
+      </c>
+      <c r="H232" t="n">
+        <v>126713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8315,6 +8315,40 @@
         <v>126713</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>4350266</v>
+      </c>
+      <c r="F233" t="n">
+        <v>4479</v>
+      </c>
+      <c r="G233" t="n">
+        <v>51</v>
+      </c>
+      <c r="H233" t="n">
+        <v>126764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8349,6 +8349,40 @@
         <v>126764</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>4353668</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3402</v>
+      </c>
+      <c r="G234" t="n">
+        <v>52</v>
+      </c>
+      <c r="H234" t="n">
+        <v>126816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8383,6 +8383,74 @@
         <v>126816</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>4357091</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3423</v>
+      </c>
+      <c r="G235" t="n">
+        <v>10</v>
+      </c>
+      <c r="H235" t="n">
+        <v>126826</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>4359388</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2297</v>
+      </c>
+      <c r="G236" t="n">
+        <v>10</v>
+      </c>
+      <c r="H236" t="n">
+        <v>126836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8451,6 +8451,40 @@
         <v>126836</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>4362150</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2762</v>
+      </c>
+      <c r="G237" t="n">
+        <v>26</v>
+      </c>
+      <c r="H237" t="n">
+        <v>126862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8485,6 +8485,40 @@
         <v>126862</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>4364529</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2379</v>
+      </c>
+      <c r="G238" t="n">
+        <v>20</v>
+      </c>
+      <c r="H238" t="n">
+        <v>126882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8519,6 +8519,40 @@
         <v>126882</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>4367291</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2763</v>
+      </c>
+      <c r="G239" t="n">
+        <v>45</v>
+      </c>
+      <c r="H239" t="n">
+        <v>126927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8553,6 +8553,40 @@
         <v>126927</v>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>4370321</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3030</v>
+      </c>
+      <c r="G240" t="n">
+        <v>53</v>
+      </c>
+      <c r="H240" t="n">
+        <v>126980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8587,6 +8587,40 @@
         <v>126980</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>4365461</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3150</v>
+      </c>
+      <c r="G241" t="n">
+        <v>60</v>
+      </c>
+      <c r="H241" t="n">
+        <v>127040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8621,6 +8621,40 @@
         <v>127040</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>4368045</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G242" t="n">
+        <v>40</v>
+      </c>
+      <c r="H242" t="n">
+        <v>127080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
       <selection activeCell="A227" sqref="A227:XFD227"/>
@@ -8655,6 +8655,40 @@
         <v>127080</v>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>4369775</v>
+      </c>
+      <c r="F243" t="n">
+        <v>127087</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1730</v>
+      </c>
+      <c r="H243" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -416,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:XFD227"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8658,35 +8658,35 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>K02000001</t>
+          <t>2021-04-11</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>K02000001</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="E243" t="n">
         <v>4369775</v>
       </c>
       <c r="F243" t="n">
+        <v>1730</v>
+      </c>
+      <c r="G243" t="n">
+        <v>7</v>
+      </c>
+      <c r="H243" t="n">
         <v>127087</v>
-      </c>
-      <c r="G243" t="n">
-        <v>1730</v>
-      </c>
-      <c r="H243" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8689,6 +8689,40 @@
         <v>127087</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>4373343</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3568</v>
+      </c>
+      <c r="G244" t="n">
+        <v>13</v>
+      </c>
+      <c r="H244" t="n">
+        <v>127100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8723,6 +8723,40 @@
         <v>127100</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>4375814</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2472</v>
+      </c>
+      <c r="G245" t="n">
+        <v>23</v>
+      </c>
+      <c r="H245" t="n">
+        <v>127123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8757,6 +8757,40 @@
         <v>127123</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>4378305</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2491</v>
+      </c>
+      <c r="G246" t="n">
+        <v>38</v>
+      </c>
+      <c r="H246" t="n">
+        <v>127161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8791,6 +8791,40 @@
         <v>127161</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>4380976</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2672</v>
+      </c>
+      <c r="G247" t="n">
+        <v>30</v>
+      </c>
+      <c r="H247" t="n">
+        <v>127191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8825,6 +8825,40 @@
         <v>127191</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>4383732</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2596</v>
+      </c>
+      <c r="G248" t="n">
+        <v>34</v>
+      </c>
+      <c r="H248" t="n">
+        <v>127225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -8859,6 +8859,176 @@
         <v>127225</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>4385938</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2206</v>
+      </c>
+      <c r="G249" t="n">
+        <v>35</v>
+      </c>
+      <c r="H249" t="n">
+        <v>127260</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>4387820</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1882</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10</v>
+      </c>
+      <c r="H250" t="n">
+        <v>127270</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>4390783</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2963</v>
+      </c>
+      <c r="G251" t="n">
+        <v>4</v>
+      </c>
+      <c r="H251" t="n">
+        <v>127274</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2021-04-20</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>4393307</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2524</v>
+      </c>
+      <c r="G252" t="n">
+        <v>33</v>
+      </c>
+      <c r="H252" t="n">
+        <v>127307</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>4395703</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2396</v>
+      </c>
+      <c r="G253" t="n">
+        <v>22</v>
+      </c>
+      <c r="H253" t="n">
+        <v>127327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9029,6 +9029,210 @@
         <v>127327</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>4398431</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2729</v>
+      </c>
+      <c r="G254" t="n">
+        <v>18</v>
+      </c>
+      <c r="H254" t="n">
+        <v>127345</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2021-04-23</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>4401109</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2678</v>
+      </c>
+      <c r="G255" t="n">
+        <v>40</v>
+      </c>
+      <c r="H255" t="n">
+        <v>127385</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>4403170</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2061</v>
+      </c>
+      <c r="G256" t="n">
+        <v>32</v>
+      </c>
+      <c r="H256" t="n">
+        <v>127417</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2021-04-25</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>4404882</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1712</v>
+      </c>
+      <c r="G257" t="n">
+        <v>11</v>
+      </c>
+      <c r="H257" t="n">
+        <v>127428</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>4406946</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2064</v>
+      </c>
+      <c r="G258" t="n">
+        <v>6</v>
+      </c>
+      <c r="H258" t="n">
+        <v>127434</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>4409631</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G259" t="n">
+        <v>17</v>
+      </c>
+      <c r="H259" t="n">
+        <v>127451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9233,6 +9233,40 @@
         <v>127451</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>4411797</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2166</v>
+      </c>
+      <c r="G260" t="n">
+        <v>29</v>
+      </c>
+      <c r="H260" t="n">
+        <v>127480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9267,6 +9267,40 @@
         <v>127480</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>4414242</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2445</v>
+      </c>
+      <c r="G261" t="n">
+        <v>22</v>
+      </c>
+      <c r="H261" t="n">
+        <v>127502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9301,6 +9301,40 @@
         <v>127502</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>4416623</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2381</v>
+      </c>
+      <c r="G262" t="n">
+        <v>15</v>
+      </c>
+      <c r="H262" t="n">
+        <v>127517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9335,6 +9335,74 @@
         <v>127517</v>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>4418530</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1907</v>
+      </c>
+      <c r="G263" t="n">
+        <v>7</v>
+      </c>
+      <c r="H263" t="n">
+        <v>127524</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>4420201</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G264" t="n">
+        <v>14</v>
+      </c>
+      <c r="H264" t="n">
+        <v>127538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9403,6 +9403,74 @@
         <v>127538</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>4421850</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1649</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>127539</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>4423796</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1946</v>
+      </c>
+      <c r="G266" t="n">
+        <v>4</v>
+      </c>
+      <c r="H266" t="n">
+        <v>127543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9471,6 +9471,74 @@
         <v>127543</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>4425940</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2144</v>
+      </c>
+      <c r="G267" t="n">
+        <v>27</v>
+      </c>
+      <c r="H267" t="n">
+        <v>127570</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>4428553</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2613</v>
+      </c>
+      <c r="G268" t="n">
+        <v>13</v>
+      </c>
+      <c r="H268" t="n">
+        <v>127583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9539,6 +9539,40 @@
         <v>127583</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>4431043</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2490</v>
+      </c>
+      <c r="G269" t="n">
+        <v>15</v>
+      </c>
+      <c r="H269" t="n">
+        <v>127598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H269"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9573,6 +9573,40 @@
         <v>127598</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>4433090</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2047</v>
+      </c>
+      <c r="G270" t="n">
+        <v>5</v>
+      </c>
+      <c r="H270" t="n">
+        <v>127603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9607,6 +9607,74 @@
         <v>127603</v>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>4434860</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2</v>
+      </c>
+      <c r="H271" t="n">
+        <v>127605</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2021-05-10</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>4437217</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2357</v>
+      </c>
+      <c r="G272" t="n">
+        <v>4</v>
+      </c>
+      <c r="H272" t="n">
+        <v>127609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9675,6 +9675,40 @@
         <v>127609</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>4439691</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2474</v>
+      </c>
+      <c r="G273" t="n">
+        <v>20</v>
+      </c>
+      <c r="H273" t="n">
+        <v>127629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9709,6 +9709,40 @@
         <v>127629</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2021-05-12</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>4441975</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2284</v>
+      </c>
+      <c r="G274" t="n">
+        <v>11</v>
+      </c>
+      <c r="H274" t="n">
+        <v>127640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9743,6 +9743,40 @@
         <v>127640</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>4444631</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2657</v>
+      </c>
+      <c r="G275" t="n">
+        <v>11</v>
+      </c>
+      <c r="H275" t="n">
+        <v>127651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9777,6 +9777,40 @@
         <v>127651</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>4446824</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2193</v>
+      </c>
+      <c r="G276" t="n">
+        <v>17</v>
+      </c>
+      <c r="H276" t="n">
+        <v>127668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9811,6 +9811,40 @@
         <v>127668</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2021-05-15</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>4448851</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2027</v>
+      </c>
+      <c r="G277" t="n">
+        <v>7</v>
+      </c>
+      <c r="H277" t="n">
+        <v>127675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9845,6 +9845,108 @@
         <v>127675</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2021-05-16</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>4450777</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1926</v>
+      </c>
+      <c r="G278" t="n">
+        <v>4</v>
+      </c>
+      <c r="H278" t="n">
+        <v>127679</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>4452756</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1979</v>
+      </c>
+      <c r="G279" t="n">
+        <v>5</v>
+      </c>
+      <c r="H279" t="n">
+        <v>127684</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>4450392</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2412</v>
+      </c>
+      <c r="G280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H280" t="n">
+        <v>127691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9947,6 +9947,40 @@
         <v>127691</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2021-05-19</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>4452527</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2696</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3</v>
+      </c>
+      <c r="H281" t="n">
+        <v>127694</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -9981,6 +9981,40 @@
         <v>127694</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>4455221</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2874</v>
+      </c>
+      <c r="G282" t="n">
+        <v>7</v>
+      </c>
+      <c r="H282" t="n">
+        <v>127701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10015,6 +10015,40 @@
         <v>127701</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2021-05-21</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>4457923</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2829</v>
+      </c>
+      <c r="G283" t="n">
+        <v>9</v>
+      </c>
+      <c r="H283" t="n">
+        <v>127710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10049,6 +10049,40 @@
         <v>127710</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2021-05-22</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>4460446</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2694</v>
+      </c>
+      <c r="G284" t="n">
+        <v>6</v>
+      </c>
+      <c r="H284" t="n">
+        <v>127716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10083,6 +10083,40 @@
         <v>127716</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2021-05-23</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>4462538</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2235</v>
+      </c>
+      <c r="G285" t="n">
+        <v>5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>127721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10117,6 +10117,40 @@
         <v>127721</v>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2021-05-24</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>4464900</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2439</v>
+      </c>
+      <c r="G286" t="n">
+        <v>3</v>
+      </c>
+      <c r="H286" t="n">
+        <v>127724</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10151,6 +10151,40 @@
         <v>127724</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>4467310</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2493</v>
+      </c>
+      <c r="G287" t="n">
+        <v>15</v>
+      </c>
+      <c r="H287" t="n">
+        <v>127739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10185,6 +10185,40 @@
         <v>127739</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>4470297</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3180</v>
+      </c>
+      <c r="G288" t="n">
+        <v>9</v>
+      </c>
+      <c r="H288" t="n">
+        <v>127748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10219,6 +10219,74 @@
         <v>127748</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2021-05-27</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>4473677</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3542</v>
+      </c>
+      <c r="G289" t="n">
+        <v>10</v>
+      </c>
+      <c r="H289" t="n">
+        <v>127758</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2021-05-28</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>4477705</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4182</v>
+      </c>
+      <c r="G290" t="n">
+        <v>10</v>
+      </c>
+      <c r="H290" t="n">
+        <v>127768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10287,6 +10287,74 @@
         <v>127768</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2021-05-29</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>4480945</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3398</v>
+      </c>
+      <c r="G291" t="n">
+        <v>7</v>
+      </c>
+      <c r="H291" t="n">
+        <v>127775</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2021-05-30</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>4484056</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3240</v>
+      </c>
+      <c r="G292" t="n">
+        <v>6</v>
+      </c>
+      <c r="H292" t="n">
+        <v>127781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10355,6 +10355,142 @@
         <v>127781</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>4487339</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3383</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>127782</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>4490438</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3165</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>127782</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2021-06-02</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>4494699</v>
+      </c>
+      <c r="F295" t="n">
+        <v>4330</v>
+      </c>
+      <c r="G295" t="n">
+        <v>12</v>
+      </c>
+      <c r="H295" t="n">
+        <v>127794</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2021-06-03</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>4499878</v>
+      </c>
+      <c r="F296" t="n">
+        <v>5274</v>
+      </c>
+      <c r="G296" t="n">
+        <v>18</v>
+      </c>
+      <c r="H296" t="n">
+        <v>127812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10491,6 +10491,176 @@
         <v>127812</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>4506018</v>
+      </c>
+      <c r="F297" t="n">
+        <v>6238</v>
+      </c>
+      <c r="G297" t="n">
+        <v>11</v>
+      </c>
+      <c r="H297" t="n">
+        <v>127823</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2021-06-05</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>4511669</v>
+      </c>
+      <c r="F298" t="n">
+        <v>5765</v>
+      </c>
+      <c r="G298" t="n">
+        <v>13</v>
+      </c>
+      <c r="H298" t="n">
+        <v>127836</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2021-06-06</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>4516892</v>
+      </c>
+      <c r="F299" t="n">
+        <v>5341</v>
+      </c>
+      <c r="G299" t="n">
+        <v>4</v>
+      </c>
+      <c r="H299" t="n">
+        <v>127840</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>4522476</v>
+      </c>
+      <c r="F300" t="n">
+        <v>5683</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="n">
+        <v>127841</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>4528442</v>
+      </c>
+      <c r="F301" t="n">
+        <v>6048</v>
+      </c>
+      <c r="G301" t="n">
+        <v>13</v>
+      </c>
+      <c r="H301" t="n">
+        <v>127854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10661,6 +10661,176 @@
         <v>127854</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>4535754</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7540</v>
+      </c>
+      <c r="G302" t="n">
+        <v>6</v>
+      </c>
+      <c r="H302" t="n">
+        <v>127860</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>4542986</v>
+      </c>
+      <c r="F303" t="n">
+        <v>7393</v>
+      </c>
+      <c r="G303" t="n">
+        <v>7</v>
+      </c>
+      <c r="H303" t="n">
+        <v>127867</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>4550944</v>
+      </c>
+      <c r="F304" t="n">
+        <v>8125</v>
+      </c>
+      <c r="G304" t="n">
+        <v>17</v>
+      </c>
+      <c r="H304" t="n">
+        <v>127884</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2021-06-12</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>4558494</v>
+      </c>
+      <c r="F305" t="n">
+        <v>7738</v>
+      </c>
+      <c r="G305" t="n">
+        <v>12</v>
+      </c>
+      <c r="H305" t="n">
+        <v>127896</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2021-06-13</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>4565813</v>
+      </c>
+      <c r="F306" t="n">
+        <v>7490</v>
+      </c>
+      <c r="G306" t="n">
+        <v>8</v>
+      </c>
+      <c r="H306" t="n">
+        <v>127904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -10831,6 +10831,176 @@
         <v>127904</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>4573419</v>
+      </c>
+      <c r="F307" t="n">
+        <v>7742</v>
+      </c>
+      <c r="G307" t="n">
+        <v>3</v>
+      </c>
+      <c r="H307" t="n">
+        <v>127907</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>4581006</v>
+      </c>
+      <c r="F308" t="n">
+        <v>7673</v>
+      </c>
+      <c r="G308" t="n">
+        <v>10</v>
+      </c>
+      <c r="H308" t="n">
+        <v>127917</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>4589814</v>
+      </c>
+      <c r="F309" t="n">
+        <v>9055</v>
+      </c>
+      <c r="G309" t="n">
+        <v>9</v>
+      </c>
+      <c r="H309" t="n">
+        <v>127926</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>4600623</v>
+      </c>
+      <c r="F310" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G310" t="n">
+        <v>19</v>
+      </c>
+      <c r="H310" t="n">
+        <v>127945</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>4610893</v>
+      </c>
+      <c r="F311" t="n">
+        <v>10476</v>
+      </c>
+      <c r="G311" t="n">
+        <v>11</v>
+      </c>
+      <c r="H311" t="n">
+        <v>127956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11001,6 +11001,244 @@
         <v>127956</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2021-06-19</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>4620968</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10321</v>
+      </c>
+      <c r="G312" t="n">
+        <v>14</v>
+      </c>
+      <c r="H312" t="n">
+        <v>127970</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>4630040</v>
+      </c>
+      <c r="F313" t="n">
+        <v>9284</v>
+      </c>
+      <c r="G313" t="n">
+        <v>6</v>
+      </c>
+      <c r="H313" t="n">
+        <v>127976</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>4640507</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10633</v>
+      </c>
+      <c r="G314" t="n">
+        <v>5</v>
+      </c>
+      <c r="H314" t="n">
+        <v>127981</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>4651988</v>
+      </c>
+      <c r="F315" t="n">
+        <v>11625</v>
+      </c>
+      <c r="G315" t="n">
+        <v>27</v>
+      </c>
+      <c r="H315" t="n">
+        <v>128008</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>4667870</v>
+      </c>
+      <c r="F316" t="n">
+        <v>16135</v>
+      </c>
+      <c r="G316" t="n">
+        <v>19</v>
+      </c>
+      <c r="H316" t="n">
+        <v>128027</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>4684572</v>
+      </c>
+      <c r="F317" t="n">
+        <v>16703</v>
+      </c>
+      <c r="G317" t="n">
+        <v>21</v>
+      </c>
+      <c r="H317" t="n">
+        <v>128048</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>4699868</v>
+      </c>
+      <c r="F318" t="n">
+        <v>15810</v>
+      </c>
+      <c r="G318" t="n">
+        <v>18</v>
+      </c>
+      <c r="H318" t="n">
+        <v>128066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11239,6 +11239,108 @@
         <v>128066</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2021-06-26</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>4717811</v>
+      </c>
+      <c r="F319" t="n">
+        <v>18270</v>
+      </c>
+      <c r="G319" t="n">
+        <v>23</v>
+      </c>
+      <c r="H319" t="n">
+        <v>128089</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2021-06-27</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>4732434</v>
+      </c>
+      <c r="F320" t="n">
+        <v>14876</v>
+      </c>
+      <c r="G320" t="n">
+        <v>11</v>
+      </c>
+      <c r="H320" t="n">
+        <v>128100</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>4755078</v>
+      </c>
+      <c r="F321" t="n">
+        <v>22868</v>
+      </c>
+      <c r="G321" t="n">
+        <v>3</v>
+      </c>
+      <c r="H321" t="n">
+        <v>128103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11341,6 +11341,210 @@
         <v>128103</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>4775301</v>
+      </c>
+      <c r="F322" t="n">
+        <v>20479</v>
+      </c>
+      <c r="G322" t="n">
+        <v>23</v>
+      </c>
+      <c r="H322" t="n">
+        <v>128126</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>4800907</v>
+      </c>
+      <c r="F323" t="n">
+        <v>26068</v>
+      </c>
+      <c r="G323" t="n">
+        <v>14</v>
+      </c>
+      <c r="H323" t="n">
+        <v>128140</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>4828463</v>
+      </c>
+      <c r="F324" t="n">
+        <v>27989</v>
+      </c>
+      <c r="G324" t="n">
+        <v>22</v>
+      </c>
+      <c r="H324" t="n">
+        <v>128162</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>4855169</v>
+      </c>
+      <c r="F325" t="n">
+        <v>27125</v>
+      </c>
+      <c r="G325" t="n">
+        <v>27</v>
+      </c>
+      <c r="H325" t="n">
+        <v>128189</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2021-07-03</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>4879616</v>
+      </c>
+      <c r="F326" t="n">
+        <v>24885</v>
+      </c>
+      <c r="G326" t="n">
+        <v>18</v>
+      </c>
+      <c r="H326" t="n">
+        <v>128207</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2021-07-04</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>4903434</v>
+      </c>
+      <c r="F327" t="n">
+        <v>24248</v>
+      </c>
+      <c r="G327" t="n">
+        <v>15</v>
+      </c>
+      <c r="H327" t="n">
+        <v>128222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H327"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11545,6 +11545,74 @@
         <v>128222</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2021-07-05</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>4930534</v>
+      </c>
+      <c r="F328" t="n">
+        <v>27334</v>
+      </c>
+      <c r="G328" t="n">
+        <v>9</v>
+      </c>
+      <c r="H328" t="n">
+        <v>128231</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>4958868</v>
+      </c>
+      <c r="F329" t="n">
+        <v>28773</v>
+      </c>
+      <c r="G329" t="n">
+        <v>37</v>
+      </c>
+      <c r="H329" t="n">
+        <v>128268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11613,6 +11613,142 @@
         <v>128268</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2021-07-07</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>4990916</v>
+      </c>
+      <c r="F330" t="n">
+        <v>32548</v>
+      </c>
+      <c r="G330" t="n">
+        <v>33</v>
+      </c>
+      <c r="H330" t="n">
+        <v>128301</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>5022893</v>
+      </c>
+      <c r="F331" t="n">
+        <v>32551</v>
+      </c>
+      <c r="G331" t="n">
+        <v>35</v>
+      </c>
+      <c r="H331" t="n">
+        <v>128336</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2021-07-09</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>5058093</v>
+      </c>
+      <c r="F332" t="n">
+        <v>35707</v>
+      </c>
+      <c r="G332" t="n">
+        <v>29</v>
+      </c>
+      <c r="H332" t="n">
+        <v>128365</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2021-07-10</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>5089893</v>
+      </c>
+      <c r="F333" t="n">
+        <v>32367</v>
+      </c>
+      <c r="G333" t="n">
+        <v>34</v>
+      </c>
+      <c r="H333" t="n">
+        <v>128399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11749,6 +11749,142 @@
         <v>128399</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2021-07-11</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>5121245</v>
+      </c>
+      <c r="F334" t="n">
+        <v>31772</v>
+      </c>
+      <c r="G334" t="n">
+        <v>26</v>
+      </c>
+      <c r="H334" t="n">
+        <v>128425</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>5155243</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34471</v>
+      </c>
+      <c r="G335" t="n">
+        <v>6</v>
+      </c>
+      <c r="H335" t="n">
+        <v>128431</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>5191459</v>
+      </c>
+      <c r="F336" t="n">
+        <v>36660</v>
+      </c>
+      <c r="G336" t="n">
+        <v>50</v>
+      </c>
+      <c r="H336" t="n">
+        <v>128481</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>5233207</v>
+      </c>
+      <c r="F337" t="n">
+        <v>42302</v>
+      </c>
+      <c r="G337" t="n">
+        <v>49</v>
+      </c>
+      <c r="H337" t="n">
+        <v>128530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -11885,6 +11885,142 @@
         <v>128530</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>5281098</v>
+      </c>
+      <c r="F338" t="n">
+        <v>48553</v>
+      </c>
+      <c r="G338" t="n">
+        <v>63</v>
+      </c>
+      <c r="H338" t="n">
+        <v>128593</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2021-07-16</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>5332371</v>
+      </c>
+      <c r="F339" t="n">
+        <v>51870</v>
+      </c>
+      <c r="G339" t="n">
+        <v>49</v>
+      </c>
+      <c r="H339" t="n">
+        <v>128642</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2021-07-17</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>5386340</v>
+      </c>
+      <c r="F340" t="n">
+        <v>54674</v>
+      </c>
+      <c r="G340" t="n">
+        <v>41</v>
+      </c>
+      <c r="H340" t="n">
+        <v>128683</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2021-07-18</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>5433939</v>
+      </c>
+      <c r="F341" t="n">
+        <v>48161</v>
+      </c>
+      <c r="G341" t="n">
+        <v>25</v>
+      </c>
+      <c r="H341" t="n">
+        <v>128708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -12021,6 +12021,278 @@
         <v>128708</v>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2021-07-19</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>5473477</v>
+      </c>
+      <c r="F342" t="n">
+        <v>39950</v>
+      </c>
+      <c r="G342" t="n">
+        <v>19</v>
+      </c>
+      <c r="H342" t="n">
+        <v>128727</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>5519602</v>
+      </c>
+      <c r="F343" t="n">
+        <v>46558</v>
+      </c>
+      <c r="G343" t="n">
+        <v>96</v>
+      </c>
+      <c r="H343" t="n">
+        <v>128823</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2021-07-21</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>5563006</v>
+      </c>
+      <c r="F344" t="n">
+        <v>44104</v>
+      </c>
+      <c r="G344" t="n">
+        <v>73</v>
+      </c>
+      <c r="H344" t="n">
+        <v>128896</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>5602321</v>
+      </c>
+      <c r="F345" t="n">
+        <v>39906</v>
+      </c>
+      <c r="G345" t="n">
+        <v>84</v>
+      </c>
+      <c r="H345" t="n">
+        <v>128980</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>5637975</v>
+      </c>
+      <c r="F346" t="n">
+        <v>36389</v>
+      </c>
+      <c r="G346" t="n">
+        <v>64</v>
+      </c>
+      <c r="H346" t="n">
+        <v>129044</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2021-07-24</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>5669260</v>
+      </c>
+      <c r="F347" t="n">
+        <v>31795</v>
+      </c>
+      <c r="G347" t="n">
+        <v>86</v>
+      </c>
+      <c r="H347" t="n">
+        <v>129130</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2021-07-25</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>5697912</v>
+      </c>
+      <c r="F348" t="n">
+        <v>29173</v>
+      </c>
+      <c r="G348" t="n">
+        <v>28</v>
+      </c>
+      <c r="H348" t="n">
+        <v>129158</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2021-07-26</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>5722298</v>
+      </c>
+      <c r="F349" t="n">
+        <v>24950</v>
+      </c>
+      <c r="G349" t="n">
+        <v>14</v>
+      </c>
+      <c r="H349" t="n">
+        <v>129172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -12293,6 +12293,618 @@
         <v>129172</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2021-07-27</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>5745526</v>
+      </c>
+      <c r="F350" t="n">
+        <v>23511</v>
+      </c>
+      <c r="G350" t="n">
+        <v>131</v>
+      </c>
+      <c r="H350" t="n">
+        <v>129303</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2021-07-28</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>5770928</v>
+      </c>
+      <c r="F351" t="n">
+        <v>27734</v>
+      </c>
+      <c r="G351" t="n">
+        <v>91</v>
+      </c>
+      <c r="H351" t="n">
+        <v>129430</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2021-07-29</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>5801561</v>
+      </c>
+      <c r="F352" t="n">
+        <v>31117</v>
+      </c>
+      <c r="G352" t="n">
+        <v>85</v>
+      </c>
+      <c r="H352" t="n">
+        <v>129515</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2021-07-30</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>5830774</v>
+      </c>
+      <c r="F353" t="n">
+        <v>29622</v>
+      </c>
+      <c r="G353" t="n">
+        <v>68</v>
+      </c>
+      <c r="H353" t="n">
+        <v>129583</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2021-07-31</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>5856528</v>
+      </c>
+      <c r="F354" t="n">
+        <v>26144</v>
+      </c>
+      <c r="G354" t="n">
+        <v>71</v>
+      </c>
+      <c r="H354" t="n">
+        <v>129654</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2021-08-01</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>5880667</v>
+      </c>
+      <c r="F355" t="n">
+        <v>24470</v>
+      </c>
+      <c r="G355" t="n">
+        <v>65</v>
+      </c>
+      <c r="H355" t="n">
+        <v>129719</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2021-08-02</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>5902354</v>
+      </c>
+      <c r="F356" t="n">
+        <v>21952</v>
+      </c>
+      <c r="G356" t="n">
+        <v>24</v>
+      </c>
+      <c r="H356" t="n">
+        <v>129743</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2021-08-03</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>5923820</v>
+      </c>
+      <c r="F357" t="n">
+        <v>21691</v>
+      </c>
+      <c r="G357" t="n">
+        <v>138</v>
+      </c>
+      <c r="H357" t="n">
+        <v>129881</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2021-08-04</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>5952756</v>
+      </c>
+      <c r="F358" t="n">
+        <v>29312</v>
+      </c>
+      <c r="G358" t="n">
+        <v>119</v>
+      </c>
+      <c r="H358" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2021-08-05</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>5982581</v>
+      </c>
+      <c r="F359" t="n">
+        <v>30215</v>
+      </c>
+      <c r="G359" t="n">
+        <v>86</v>
+      </c>
+      <c r="H359" t="n">
+        <v>130086</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>6014023</v>
+      </c>
+      <c r="F360" t="n">
+        <v>31808</v>
+      </c>
+      <c r="G360" t="n">
+        <v>92</v>
+      </c>
+      <c r="H360" t="n">
+        <v>130178</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2021-08-07</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>6042252</v>
+      </c>
+      <c r="F361" t="n">
+        <v>28612</v>
+      </c>
+      <c r="G361" t="n">
+        <v>103</v>
+      </c>
+      <c r="H361" t="n">
+        <v>130281</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>6069362</v>
+      </c>
+      <c r="F362" t="n">
+        <v>27429</v>
+      </c>
+      <c r="G362" t="n">
+        <v>39</v>
+      </c>
+      <c r="H362" t="n">
+        <v>130320</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2021-08-09</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>6094243</v>
+      </c>
+      <c r="F363" t="n">
+        <v>25161</v>
+      </c>
+      <c r="G363" t="n">
+        <v>37</v>
+      </c>
+      <c r="H363" t="n">
+        <v>130357</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2021-08-10</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>6117540</v>
+      </c>
+      <c r="F364" t="n">
+        <v>23510</v>
+      </c>
+      <c r="G364" t="n">
+        <v>146</v>
+      </c>
+      <c r="H364" t="n">
+        <v>130503</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2021-08-11</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>6146800</v>
+      </c>
+      <c r="F365" t="n">
+        <v>29612</v>
+      </c>
+      <c r="G365" t="n">
+        <v>104</v>
+      </c>
+      <c r="H365" t="n">
+        <v>130607</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2021-08-12</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>6179506</v>
+      </c>
+      <c r="F366" t="n">
+        <v>33074</v>
+      </c>
+      <c r="G366" t="n">
+        <v>94</v>
+      </c>
+      <c r="H366" t="n">
+        <v>130701</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2021-08-13</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>6211868</v>
+      </c>
+      <c r="F367" t="n">
+        <v>32700</v>
+      </c>
+      <c r="G367" t="n">
+        <v>100</v>
+      </c>
+      <c r="H367" t="n">
+        <v>130801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -12905,6 +12905,108 @@
         <v>130801</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2021-08-14</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>6241011</v>
+      </c>
+      <c r="F368" t="n">
+        <v>29520</v>
+      </c>
+      <c r="G368" t="n">
+        <v>93</v>
+      </c>
+      <c r="H368" t="n">
+        <v>130894</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2021-08-15</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>6267437</v>
+      </c>
+      <c r="F369" t="n">
+        <v>26750</v>
+      </c>
+      <c r="G369" t="n">
+        <v>61</v>
+      </c>
+      <c r="H369" t="n">
+        <v>130953</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>6295613</v>
+      </c>
+      <c r="F370" t="n">
+        <v>28438</v>
+      </c>
+      <c r="G370" t="n">
+        <v>26</v>
+      </c>
+      <c r="H370" t="n">
+        <v>130979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13007,6 +13007,176 @@
         <v>130979</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2021-08-17</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>6322241</v>
+      </c>
+      <c r="F371" t="n">
+        <v>26852</v>
+      </c>
+      <c r="G371" t="n">
+        <v>170</v>
+      </c>
+      <c r="H371" t="n">
+        <v>131149</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>6355887</v>
+      </c>
+      <c r="F372" t="n">
+        <v>33904</v>
+      </c>
+      <c r="G372" t="n">
+        <v>111</v>
+      </c>
+      <c r="H372" t="n">
+        <v>131260</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2021-08-19</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>6392160</v>
+      </c>
+      <c r="F373" t="n">
+        <v>36572</v>
+      </c>
+      <c r="G373" t="n">
+        <v>113</v>
+      </c>
+      <c r="H373" t="n">
+        <v>131373</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>6429147</v>
+      </c>
+      <c r="F374" t="n">
+        <v>37314</v>
+      </c>
+      <c r="G374" t="n">
+        <v>114</v>
+      </c>
+      <c r="H374" t="n">
+        <v>131487</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2021-08-21</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>6460930</v>
+      </c>
+      <c r="F375" t="n">
+        <v>32058</v>
+      </c>
+      <c r="G375" t="n">
+        <v>104</v>
+      </c>
+      <c r="H375" t="n">
+        <v>131591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13177,6 +13177,244 @@
         <v>131591</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2021-08-22</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>6492906</v>
+      </c>
+      <c r="F376" t="n">
+        <v>32253</v>
+      </c>
+      <c r="G376" t="n">
+        <v>49</v>
+      </c>
+      <c r="H376" t="n">
+        <v>131640</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>6524581</v>
+      </c>
+      <c r="F377" t="n">
+        <v>31914</v>
+      </c>
+      <c r="G377" t="n">
+        <v>40</v>
+      </c>
+      <c r="H377" t="n">
+        <v>131680</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>6555200</v>
+      </c>
+      <c r="F378" t="n">
+        <v>30838</v>
+      </c>
+      <c r="G378" t="n">
+        <v>174</v>
+      </c>
+      <c r="H378" t="n">
+        <v>131854</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2021-08-25</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>6590747</v>
+      </c>
+      <c r="F379" t="n">
+        <v>35847</v>
+      </c>
+      <c r="G379" t="n">
+        <v>149</v>
+      </c>
+      <c r="H379" t="n">
+        <v>132003</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2021-08-26</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>6628709</v>
+      </c>
+      <c r="F380" t="n">
+        <v>38281</v>
+      </c>
+      <c r="G380" t="n">
+        <v>140</v>
+      </c>
+      <c r="H380" t="n">
+        <v>132143</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2021-08-27</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>6666399</v>
+      </c>
+      <c r="F381" t="n">
+        <v>38046</v>
+      </c>
+      <c r="G381" t="n">
+        <v>100</v>
+      </c>
+      <c r="H381" t="n">
+        <v>132243</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2021-08-28</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>6698486</v>
+      </c>
+      <c r="F382" t="n">
+        <v>32406</v>
+      </c>
+      <c r="G382" t="n">
+        <v>133</v>
+      </c>
+      <c r="H382" t="n">
+        <v>132376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H382"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13415,6 +13415,142 @@
         <v>132376</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2021-08-29</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>6731423</v>
+      </c>
+      <c r="F383" t="n">
+        <v>33196</v>
+      </c>
+      <c r="G383" t="n">
+        <v>61</v>
+      </c>
+      <c r="H383" t="n">
+        <v>132437</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>6757650</v>
+      </c>
+      <c r="F384" t="n">
+        <v>26476</v>
+      </c>
+      <c r="G384" t="n">
+        <v>48</v>
+      </c>
+      <c r="H384" t="n">
+        <v>132485</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>6789581</v>
+      </c>
+      <c r="F385" t="n">
+        <v>32181</v>
+      </c>
+      <c r="G385" t="n">
+        <v>50</v>
+      </c>
+      <c r="H385" t="n">
+        <v>132535</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>6825074</v>
+      </c>
+      <c r="F386" t="n">
+        <v>35693</v>
+      </c>
+      <c r="G386" t="n">
+        <v>207</v>
+      </c>
+      <c r="H386" t="n">
+        <v>132742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13551,6 +13551,74 @@
         <v>132742</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>6862904</v>
+      </c>
+      <c r="F387" t="n">
+        <v>38154</v>
+      </c>
+      <c r="G387" t="n">
+        <v>178</v>
+      </c>
+      <c r="H387" t="n">
+        <v>132920</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>6904969</v>
+      </c>
+      <c r="F388" t="n">
+        <v>42076</v>
+      </c>
+      <c r="G388" t="n">
+        <v>121</v>
+      </c>
+      <c r="H388" t="n">
+        <v>133041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H388"/>
+  <dimension ref="A1:H392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13619,6 +13619,142 @@
         <v>133041</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>6941611</v>
+      </c>
+      <c r="F389" t="n">
+        <v>37578</v>
+      </c>
+      <c r="G389" t="n">
+        <v>120</v>
+      </c>
+      <c r="H389" t="n">
+        <v>133161</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2021-09-05</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>6978126</v>
+      </c>
+      <c r="F390" t="n">
+        <v>37011</v>
+      </c>
+      <c r="G390" t="n">
+        <v>68</v>
+      </c>
+      <c r="H390" t="n">
+        <v>133229</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>7018927</v>
+      </c>
+      <c r="F391" t="n">
+        <v>41192</v>
+      </c>
+      <c r="G391" t="n">
+        <v>45</v>
+      </c>
+      <c r="H391" t="n">
+        <v>133274</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2021-09-07</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>7056106</v>
+      </c>
+      <c r="F392" t="n">
+        <v>37489</v>
+      </c>
+      <c r="G392" t="n">
+        <v>209</v>
+      </c>
+      <c r="H392" t="n">
+        <v>133483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H392"/>
+  <dimension ref="A1:H395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13755,6 +13755,108 @@
         <v>133483</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2021-09-08</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>7094592</v>
+      </c>
+      <c r="F393" t="n">
+        <v>38975</v>
+      </c>
+      <c r="G393" t="n">
+        <v>191</v>
+      </c>
+      <c r="H393" t="n">
+        <v>133674</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2021-09-09</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>7132072</v>
+      </c>
+      <c r="F394" t="n">
+        <v>38013</v>
+      </c>
+      <c r="G394" t="n">
+        <v>167</v>
+      </c>
+      <c r="H394" t="n">
+        <v>133841</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2021-09-10</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>7168806</v>
+      </c>
+      <c r="F395" t="n">
+        <v>37622</v>
+      </c>
+      <c r="G395" t="n">
+        <v>147</v>
+      </c>
+      <c r="H395" t="n">
+        <v>133988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H395"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13857,6 +13857,108 @@
         <v>133988</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2021-09-11</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>7197662</v>
+      </c>
+      <c r="F396" t="n">
+        <v>29547</v>
+      </c>
+      <c r="G396" t="n">
+        <v>156</v>
+      </c>
+      <c r="H396" t="n">
+        <v>134144</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2021-09-12</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>7226276</v>
+      </c>
+      <c r="F397" t="n">
+        <v>29173</v>
+      </c>
+      <c r="G397" t="n">
+        <v>56</v>
+      </c>
+      <c r="H397" t="n">
+        <v>134200</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2021-09-13</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>7256559</v>
+      </c>
+      <c r="F398" t="n">
+        <v>30825</v>
+      </c>
+      <c r="G398" t="n">
+        <v>61</v>
+      </c>
+      <c r="H398" t="n">
+        <v>134261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:H400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -13959,6 +13959,74 @@
         <v>134261</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2021-09-14</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>7282810</v>
+      </c>
+      <c r="F399" t="n">
+        <v>26628</v>
+      </c>
+      <c r="G399" t="n">
+        <v>185</v>
+      </c>
+      <c r="H399" t="n">
+        <v>134446</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2021-09-15</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>7312683</v>
+      </c>
+      <c r="F400" t="n">
+        <v>30597</v>
+      </c>
+      <c r="G400" t="n">
+        <v>201</v>
+      </c>
+      <c r="H400" t="n">
+        <v>134647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:H405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14027,6 +14027,176 @@
         <v>134647</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>7339009</v>
+      </c>
+      <c r="F401" t="n">
+        <v>26911</v>
+      </c>
+      <c r="G401" t="n">
+        <v>158</v>
+      </c>
+      <c r="H401" t="n">
+        <v>134805</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>7371301</v>
+      </c>
+      <c r="F402" t="n">
+        <v>32651</v>
+      </c>
+      <c r="G402" t="n">
+        <v>178</v>
+      </c>
+      <c r="H402" t="n">
+        <v>134983</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>7400739</v>
+      </c>
+      <c r="F403" t="n">
+        <v>30144</v>
+      </c>
+      <c r="G403" t="n">
+        <v>164</v>
+      </c>
+      <c r="H403" t="n">
+        <v>135147</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2021-09-19</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>7429746</v>
+      </c>
+      <c r="F404" t="n">
+        <v>29612</v>
+      </c>
+      <c r="G404" t="n">
+        <v>56</v>
+      </c>
+      <c r="H404" t="n">
+        <v>135203</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>7465448</v>
+      </c>
+      <c r="F405" t="n">
+        <v>36100</v>
+      </c>
+      <c r="G405" t="n">
+        <v>49</v>
+      </c>
+      <c r="H405" t="n">
+        <v>135252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H405"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14197,6 +14197,204 @@
         <v>135252</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2021-09-21</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>7496543</v>
+      </c>
+      <c r="F406" t="n">
+        <v>31564</v>
+      </c>
+      <c r="G406" t="n">
+        <v>203</v>
+      </c>
+      <c r="H406" t="n">
+        <v>135455</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>7530103</v>
+      </c>
+      <c r="F407" t="n">
+        <v>34460</v>
+      </c>
+      <c r="G407" t="n">
+        <v>166</v>
+      </c>
+      <c r="H407" t="n">
+        <v>135621</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>7565867</v>
+      </c>
+      <c r="F408" t="n">
+        <v>36710</v>
+      </c>
+      <c r="G408" t="n">
+        <v>182</v>
+      </c>
+      <c r="H408" t="n">
+        <v>135803</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>7601487</v>
+      </c>
+      <c r="F409" t="n">
+        <v>35623</v>
+      </c>
+      <c r="G409" t="n">
+        <v>180</v>
+      </c>
+      <c r="H409" t="n">
+        <v>135983</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2021-09-25</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>7631233</v>
+      </c>
+      <c r="F410" t="n">
+        <v>31348</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>7664230</v>
+      </c>
+      <c r="F411" t="n">
+        <v>32417</v>
+      </c>
+      <c r="G411" t="n">
+        <v>58</v>
+      </c>
+      <c r="H411" t="n">
+        <v>136168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H411"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14395,6 +14395,108 @@
         <v>136168</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>7701715</v>
+      </c>
+      <c r="F412" t="n">
+        <v>37960</v>
+      </c>
+      <c r="G412" t="n">
+        <v>40</v>
+      </c>
+      <c r="H412" t="n">
+        <v>136208</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>7736235</v>
+      </c>
+      <c r="F413" t="n">
+        <v>34526</v>
+      </c>
+      <c r="G413" t="n">
+        <v>167</v>
+      </c>
+      <c r="H413" t="n">
+        <v>136375</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>7771294</v>
+      </c>
+      <c r="F414" t="n">
+        <v>36722</v>
+      </c>
+      <c r="G414" t="n">
+        <v>150</v>
+      </c>
+      <c r="H414" t="n">
+        <v>136525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14497,6 +14497,142 @@
         <v>136525</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>7807036</v>
+      </c>
+      <c r="F415" t="n">
+        <v>36480</v>
+      </c>
+      <c r="G415" t="n">
+        <v>137</v>
+      </c>
+      <c r="H415" t="n">
+        <v>136662</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2021-10-01</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>7841625</v>
+      </c>
+      <c r="F416" t="n">
+        <v>35577</v>
+      </c>
+      <c r="G416" t="n">
+        <v>127</v>
+      </c>
+      <c r="H416" t="n">
+        <v>136789</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2021-10-02</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>7871014</v>
+      </c>
+      <c r="F417" t="n">
+        <v>30301</v>
+      </c>
+      <c r="G417" t="n">
+        <v>121</v>
+      </c>
+      <c r="H417" t="n">
+        <v>136910</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2021-10-03</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>7900680</v>
+      </c>
+      <c r="F418" t="n">
+        <v>30439</v>
+      </c>
+      <c r="G418" t="n">
+        <v>43</v>
+      </c>
+      <c r="H418" t="n">
+        <v>136953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H418"/>
+  <dimension ref="A1:H420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14633,6 +14633,74 @@
         <v>136953</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2021-10-04</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>7934936</v>
+      </c>
+      <c r="F419" t="n">
+        <v>35077</v>
+      </c>
+      <c r="G419" t="n">
+        <v>33</v>
+      </c>
+      <c r="H419" t="n">
+        <v>136986</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2021-10-05</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>7967985</v>
+      </c>
+      <c r="F420" t="n">
+        <v>33869</v>
+      </c>
+      <c r="G420" t="n">
+        <v>166</v>
+      </c>
+      <c r="H420" t="n">
+        <v>137152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14701,6 +14701,74 @@
         <v>137152</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>8006660</v>
+      </c>
+      <c r="F421" t="n">
+        <v>39851</v>
+      </c>
+      <c r="G421" t="n">
+        <v>143</v>
+      </c>
+      <c r="H421" t="n">
+        <v>137295</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2021-10-07</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>8046390</v>
+      </c>
+      <c r="F422" t="n">
+        <v>40701</v>
+      </c>
+      <c r="G422" t="n">
+        <v>122</v>
+      </c>
+      <c r="H422" t="n">
+        <v>137417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H422"/>
+  <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14769,6 +14769,176 @@
         <v>137417</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>8081300</v>
+      </c>
+      <c r="F423" t="n">
+        <v>36060</v>
+      </c>
+      <c r="G423" t="n">
+        <v>127</v>
+      </c>
+      <c r="H423" t="n">
+        <v>137541</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2021-10-09</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>8120713</v>
+      </c>
+      <c r="F424" t="n">
+        <v>34950</v>
+      </c>
+      <c r="G424" t="n">
+        <v>133</v>
+      </c>
+      <c r="H424" t="n">
+        <v>137697</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2021-10-10</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>8154306</v>
+      </c>
+      <c r="F425" t="n">
+        <v>34574</v>
+      </c>
+      <c r="G425" t="n">
+        <v>38</v>
+      </c>
+      <c r="H425" t="n">
+        <v>137735</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>8193769</v>
+      </c>
+      <c r="F426" t="n">
+        <v>40224</v>
+      </c>
+      <c r="G426" t="n">
+        <v>28</v>
+      </c>
+      <c r="H426" t="n">
+        <v>137763</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>8231437</v>
+      </c>
+      <c r="F427" t="n">
+        <v>38520</v>
+      </c>
+      <c r="G427" t="n">
+        <v>181</v>
+      </c>
+      <c r="H427" t="n">
+        <v>137944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H427"/>
+  <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -14939,6 +14939,74 @@
         <v>137944</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>8272883</v>
+      </c>
+      <c r="F428" t="n">
+        <v>42776</v>
+      </c>
+      <c r="G428" t="n">
+        <v>136</v>
+      </c>
+      <c r="H428" t="n">
+        <v>138080</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>8317439</v>
+      </c>
+      <c r="F429" t="n">
+        <v>45066</v>
+      </c>
+      <c r="G429" t="n">
+        <v>157</v>
+      </c>
+      <c r="H429" t="n">
+        <v>138237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H429"/>
+  <dimension ref="A1:H430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -15007,6 +15007,40 @@
         <v>138237</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>8361651</v>
+      </c>
+      <c r="F430" t="n">
+        <v>44932</v>
+      </c>
+      <c r="G430" t="n">
+        <v>145</v>
+      </c>
+      <c r="H430" t="n">
+        <v>138379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H430"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -15041,6 +15041,312 @@
         <v>138379</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2021-10-16</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>8404469</v>
+      </c>
+      <c r="F431" t="n">
+        <v>43423</v>
+      </c>
+      <c r="G431" t="n">
+        <v>148</v>
+      </c>
+      <c r="H431" t="n">
+        <v>138527</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2021-10-17</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>8449165</v>
+      </c>
+      <c r="F432" t="n">
+        <v>45140</v>
+      </c>
+      <c r="G432" t="n">
+        <v>57</v>
+      </c>
+      <c r="H432" t="n">
+        <v>138584</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2021-10-18</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>8497868</v>
+      </c>
+      <c r="F433" t="n">
+        <v>49156</v>
+      </c>
+      <c r="G433" t="n">
+        <v>45</v>
+      </c>
+      <c r="H433" t="n">
+        <v>138629</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2021-10-19</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>8541192</v>
+      </c>
+      <c r="F434" t="n">
+        <v>43738</v>
+      </c>
+      <c r="G434" t="n">
+        <v>223</v>
+      </c>
+      <c r="H434" t="n">
+        <v>138852</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2021-10-20</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>8589737</v>
+      </c>
+      <c r="F435" t="n">
+        <v>49139</v>
+      </c>
+      <c r="G435" t="n">
+        <v>179</v>
+      </c>
+      <c r="H435" t="n">
+        <v>139031</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>8641221</v>
+      </c>
+      <c r="F436" t="n">
+        <v>52009</v>
+      </c>
+      <c r="G436" t="n">
+        <v>115</v>
+      </c>
+      <c r="H436" t="n">
+        <v>139146</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2021-10-22</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>8689949</v>
+      </c>
+      <c r="F437" t="n">
+        <v>49298</v>
+      </c>
+      <c r="G437" t="n">
+        <v>180</v>
+      </c>
+      <c r="H437" t="n">
+        <v>139326</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2021-10-23</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>8734934</v>
+      </c>
+      <c r="F438" t="n">
+        <v>44985</v>
+      </c>
+      <c r="G438" t="n">
+        <v>135</v>
+      </c>
+      <c r="H438" t="n">
+        <v>139461</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2021-10-24</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>8773674</v>
+      </c>
+      <c r="F439" t="n">
+        <v>39962</v>
+      </c>
+      <c r="G439" t="n">
+        <v>72</v>
+      </c>
+      <c r="H439" t="n">
+        <v>139533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -15347,6 +15347,244 @@
         <v>139533</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2021-10-25</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>8809774</v>
+      </c>
+      <c r="F440" t="n">
+        <v>36567</v>
+      </c>
+      <c r="G440" t="n">
+        <v>38</v>
+      </c>
+      <c r="H440" t="n">
+        <v>139571</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>8853227</v>
+      </c>
+      <c r="F441" t="n">
+        <v>40954</v>
+      </c>
+      <c r="G441" t="n">
+        <v>263</v>
+      </c>
+      <c r="H441" t="n">
+        <v>139834</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>8897149</v>
+      </c>
+      <c r="F442" t="n">
+        <v>43941</v>
+      </c>
+      <c r="G442" t="n">
+        <v>207</v>
+      </c>
+      <c r="H442" t="n">
+        <v>140041</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>8936155</v>
+      </c>
+      <c r="F443" t="n">
+        <v>39842</v>
+      </c>
+      <c r="G443" t="n">
+        <v>165</v>
+      </c>
+      <c r="H443" t="n">
+        <v>140206</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2021-10-29</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>8979236</v>
+      </c>
+      <c r="F444" t="n">
+        <v>43467</v>
+      </c>
+      <c r="G444" t="n">
+        <v>186</v>
+      </c>
+      <c r="H444" t="n">
+        <v>140392</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2021-10-30</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>9019962</v>
+      </c>
+      <c r="F445" t="n">
+        <v>41278</v>
+      </c>
+      <c r="G445" t="n">
+        <v>166</v>
+      </c>
+      <c r="H445" t="n">
+        <v>140558</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2021-10-31</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>9057629</v>
+      </c>
+      <c r="F446" t="n">
+        <v>38009</v>
+      </c>
+      <c r="G446" t="n">
+        <v>74</v>
+      </c>
+      <c r="H446" t="n">
+        <v>140632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H446"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -15585,6 +15585,244 @@
         <v>140632</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2021-11-01</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>9097311</v>
+      </c>
+      <c r="F447" t="n">
+        <v>40077</v>
+      </c>
+      <c r="G447" t="n">
+        <v>40</v>
+      </c>
+      <c r="H447" t="n">
+        <v>140672</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>9130857</v>
+      </c>
+      <c r="F448" t="n">
+        <v>33865</v>
+      </c>
+      <c r="G448" t="n">
+        <v>293</v>
+      </c>
+      <c r="H448" t="n">
+        <v>140964</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2021-11-03</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>9171660</v>
+      </c>
+      <c r="F449" t="n">
+        <v>41299</v>
+      </c>
+      <c r="G449" t="n">
+        <v>217</v>
+      </c>
+      <c r="H449" t="n">
+        <v>141181</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2021-11-04</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>9208219</v>
+      </c>
+      <c r="F450" t="n">
+        <v>37269</v>
+      </c>
+      <c r="G450" t="n">
+        <v>214</v>
+      </c>
+      <c r="H450" t="n">
+        <v>141395</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2021-11-05</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>9241916</v>
+      </c>
+      <c r="F451" t="n">
+        <v>34029</v>
+      </c>
+      <c r="G451" t="n">
+        <v>193</v>
+      </c>
+      <c r="H451" t="n">
+        <v>141588</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2021-11-06</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>9272066</v>
+      </c>
+      <c r="F452" t="n">
+        <v>30693</v>
+      </c>
+      <c r="G452" t="n">
+        <v>155</v>
+      </c>
+      <c r="H452" t="n">
+        <v>141743</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2021-11-07</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>9301909</v>
+      </c>
+      <c r="F453" t="n">
+        <v>30305</v>
+      </c>
+      <c r="G453" t="n">
+        <v>62</v>
+      </c>
+      <c r="H453" t="n">
+        <v>141805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -15823,6 +15823,244 @@
         <v>141805</v>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2021-11-08</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>9333891</v>
+      </c>
+      <c r="F454" t="n">
+        <v>32322</v>
+      </c>
+      <c r="G454" t="n">
+        <v>57</v>
+      </c>
+      <c r="H454" t="n">
+        <v>141862</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2021-11-09</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>9366676</v>
+      </c>
+      <c r="F455" t="n">
+        <v>33117</v>
+      </c>
+      <c r="G455" t="n">
+        <v>262</v>
+      </c>
+      <c r="H455" t="n">
+        <v>142124</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2021-11-10</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>9406001</v>
+      </c>
+      <c r="F456" t="n">
+        <v>39329</v>
+      </c>
+      <c r="G456" t="n">
+        <v>214</v>
+      </c>
+      <c r="H456" t="n">
+        <v>142338</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>9448402</v>
+      </c>
+      <c r="F457" t="n">
+        <v>42408</v>
+      </c>
+      <c r="G457" t="n">
+        <v>195</v>
+      </c>
+      <c r="H457" t="n">
+        <v>142533</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2021-11-12</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>9487302</v>
+      </c>
+      <c r="F458" t="n">
+        <v>40375</v>
+      </c>
+      <c r="G458" t="n">
+        <v>145</v>
+      </c>
+      <c r="H458" t="n">
+        <v>142678</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2021-11-13</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>9524971</v>
+      </c>
+      <c r="F459" t="n">
+        <v>38351</v>
+      </c>
+      <c r="G459" t="n">
+        <v>157</v>
+      </c>
+      <c r="H459" t="n">
+        <v>142835</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2021-11-14</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>9561099</v>
+      </c>
+      <c r="F460" t="n">
+        <v>36517</v>
+      </c>
+      <c r="G460" t="n">
+        <v>63</v>
+      </c>
+      <c r="H460" t="n">
+        <v>142898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H460"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -16061,6 +16061,414 @@
         <v>142898</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2021-11-15</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>9600369</v>
+      </c>
+      <c r="F461" t="n">
+        <v>39705</v>
+      </c>
+      <c r="G461" t="n">
+        <v>47</v>
+      </c>
+      <c r="H461" t="n">
+        <v>142945</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2021-11-16</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>9637190</v>
+      </c>
+      <c r="F462" t="n">
+        <v>37243</v>
+      </c>
+      <c r="G462" t="n">
+        <v>214</v>
+      </c>
+      <c r="H462" t="n">
+        <v>143159</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>9675058</v>
+      </c>
+      <c r="F463" t="n">
+        <v>38263</v>
+      </c>
+      <c r="G463" t="n">
+        <v>201</v>
+      </c>
+      <c r="H463" t="n">
+        <v>143360</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>9721916</v>
+      </c>
+      <c r="F464" t="n">
+        <v>46807</v>
+      </c>
+      <c r="G464" t="n">
+        <v>199</v>
+      </c>
+      <c r="H464" t="n">
+        <v>143559</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2021-11-19</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>9766153</v>
+      </c>
+      <c r="F465" t="n">
+        <v>44242</v>
+      </c>
+      <c r="G465" t="n">
+        <v>157</v>
+      </c>
+      <c r="H465" t="n">
+        <v>143716</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2021-11-20</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>9806034</v>
+      </c>
+      <c r="F466" t="n">
+        <v>40941</v>
+      </c>
+      <c r="G466" t="n">
+        <v>150</v>
+      </c>
+      <c r="H466" t="n">
+        <v>143866</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2021-11-21</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>9845492</v>
+      </c>
+      <c r="F467" t="n">
+        <v>40004</v>
+      </c>
+      <c r="G467" t="n">
+        <v>61</v>
+      </c>
+      <c r="H467" t="n">
+        <v>143927</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>9889926</v>
+      </c>
+      <c r="F468" t="n">
+        <v>44917</v>
+      </c>
+      <c r="G468" t="n">
+        <v>45</v>
+      </c>
+      <c r="H468" t="n">
+        <v>143972</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>9932408</v>
+      </c>
+      <c r="F469" t="n">
+        <v>42484</v>
+      </c>
+      <c r="G469" t="n">
+        <v>165</v>
+      </c>
+      <c r="H469" t="n">
+        <v>144137</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2021-11-24</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>9974843</v>
+      </c>
+      <c r="F470" t="n">
+        <v>43676</v>
+      </c>
+      <c r="G470" t="n">
+        <v>149</v>
+      </c>
+      <c r="H470" t="n">
+        <v>144286</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2021-11-25</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>10021497</v>
+      </c>
+      <c r="F471" t="n">
+        <v>47240</v>
+      </c>
+      <c r="G471" t="n">
+        <v>147</v>
+      </c>
+      <c r="H471" t="n">
+        <v>144433</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2021-11-26</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>10070841</v>
+      </c>
+      <c r="F472" t="n">
+        <v>50091</v>
+      </c>
+      <c r="G472" t="n">
+        <v>160</v>
+      </c>
+      <c r="H472" t="n">
+        <v>144593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -16469,6 +16469,312 @@
         <v>144593</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2021-11-27</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>10110408</v>
+      </c>
+      <c r="F473" t="n">
+        <v>39567</v>
+      </c>
+      <c r="G473" t="n">
+        <v>131</v>
+      </c>
+      <c r="H473" t="n">
+        <v>144724</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2021-11-28</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>10146915</v>
+      </c>
+      <c r="F474" t="n">
+        <v>37681</v>
+      </c>
+      <c r="G474" t="n">
+        <v>51</v>
+      </c>
+      <c r="H474" t="n">
+        <v>144775</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2021-11-29</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>10189059</v>
+      </c>
+      <c r="F475" t="n">
+        <v>42583</v>
+      </c>
+      <c r="G475" t="n">
+        <v>35</v>
+      </c>
+      <c r="H475" t="n">
+        <v>144810</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2021-11-30</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>10228772</v>
+      </c>
+      <c r="F476" t="n">
+        <v>39716</v>
+      </c>
+      <c r="G476" t="n">
+        <v>159</v>
+      </c>
+      <c r="H476" t="n">
+        <v>144969</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>10276007</v>
+      </c>
+      <c r="F477" t="n">
+        <v>48374</v>
+      </c>
+      <c r="G477" t="n">
+        <v>171</v>
+      </c>
+      <c r="H477" t="n">
+        <v>145140</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2021-12-02</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>10329074</v>
+      </c>
+      <c r="F478" t="n">
+        <v>53945</v>
+      </c>
+      <c r="G478" t="n">
+        <v>141</v>
+      </c>
+      <c r="H478" t="n">
+        <v>145281</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>10379647</v>
+      </c>
+      <c r="F479" t="n">
+        <v>50584</v>
+      </c>
+      <c r="G479" t="n">
+        <v>143</v>
+      </c>
+      <c r="H479" t="n">
+        <v>145424</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2021-12-04</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>10421104</v>
+      </c>
+      <c r="F480" t="n">
+        <v>42848</v>
+      </c>
+      <c r="G480" t="n">
+        <v>127</v>
+      </c>
+      <c r="H480" t="n">
+        <v>145551</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2021-12-05</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>10464389</v>
+      </c>
+      <c r="F481" t="n">
+        <v>43992</v>
+      </c>
+      <c r="G481" t="n">
+        <v>54</v>
+      </c>
+      <c r="H481" t="n">
+        <v>145605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -16775,6 +16775,244 @@
         <v>145605</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>10515239</v>
+      </c>
+      <c r="F482" t="n">
+        <v>51459</v>
+      </c>
+      <c r="G482" t="n">
+        <v>41</v>
+      </c>
+      <c r="H482" t="n">
+        <v>145646</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2021-12-07</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>10560341</v>
+      </c>
+      <c r="F483" t="n">
+        <v>45691</v>
+      </c>
+      <c r="G483" t="n">
+        <v>180</v>
+      </c>
+      <c r="H483" t="n">
+        <v>145826</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2021-12-08</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>10610958</v>
+      </c>
+      <c r="F484" t="n">
+        <v>51342</v>
+      </c>
+      <c r="G484" t="n">
+        <v>161</v>
+      </c>
+      <c r="H484" t="n">
+        <v>145987</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2021-12-09</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>10660981</v>
+      </c>
+      <c r="F485" t="n">
+        <v>50867</v>
+      </c>
+      <c r="G485" t="n">
+        <v>148</v>
+      </c>
+      <c r="H485" t="n">
+        <v>146135</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>10719165</v>
+      </c>
+      <c r="F486" t="n">
+        <v>58194</v>
+      </c>
+      <c r="G486" t="n">
+        <v>120</v>
+      </c>
+      <c r="H486" t="n">
+        <v>146255</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>10771444</v>
+      </c>
+      <c r="F487" t="n">
+        <v>54073</v>
+      </c>
+      <c r="G487" t="n">
+        <v>132</v>
+      </c>
+      <c r="H487" t="n">
+        <v>146387</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>10819515</v>
+      </c>
+      <c r="F488" t="n">
+        <v>48854</v>
+      </c>
+      <c r="G488" t="n">
+        <v>52</v>
+      </c>
+      <c r="H488" t="n">
+        <v>146439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="A243" sqref="A243"/>
@@ -17013,6 +17013,244 @@
         <v>146439</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>10873468</v>
+      </c>
+      <c r="F489" t="n">
+        <v>54661</v>
+      </c>
+      <c r="G489" t="n">
+        <v>38</v>
+      </c>
+      <c r="H489" t="n">
+        <v>146477</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>10932545</v>
+      </c>
+      <c r="F490" t="n">
+        <v>59610</v>
+      </c>
+      <c r="G490" t="n">
+        <v>150</v>
+      </c>
+      <c r="H490" t="n">
+        <v>146627</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>11010286</v>
+      </c>
+      <c r="F491" t="n">
+        <v>78610</v>
+      </c>
+      <c r="G491" t="n">
+        <v>165</v>
+      </c>
+      <c r="H491" t="n">
+        <v>146791</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2021-12-16</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>11097851</v>
+      </c>
+      <c r="F492" t="n">
+        <v>88376</v>
+      </c>
+      <c r="G492" t="n">
+        <v>146</v>
+      </c>
+      <c r="H492" t="n">
+        <v>146937</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>11190354</v>
+      </c>
+      <c r="F493" t="n">
+        <v>93045</v>
+      </c>
+      <c r="G493" t="n">
+        <v>111</v>
+      </c>
+      <c r="H493" t="n">
+        <v>147048</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2021-12-18</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>11279428</v>
+      </c>
+      <c r="F494" t="n">
+        <v>90418</v>
+      </c>
+      <c r="G494" t="n">
+        <v>125</v>
+      </c>
+      <c r="H494" t="n">
+        <v>147173</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2021-12-19</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>11361387</v>
+      </c>
+      <c r="F495" t="n">
+        <v>82886</v>
+      </c>
+      <c r="G495" t="n">
+        <v>45</v>
+      </c>
+      <c r="H495" t="n">
+        <v>147218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="90" windowWidth="14355" windowHeight="8265" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="covid_totals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -414,10 +414,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -17251,6 +17251,176 @@
         <v>147218</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>11453121</v>
+      </c>
+      <c r="F496" t="n">
+        <v>91743</v>
+      </c>
+      <c r="G496" t="n">
+        <v>44</v>
+      </c>
+      <c r="H496" t="n">
+        <v>147261</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>11542143</v>
+      </c>
+      <c r="F497" t="n">
+        <v>90629</v>
+      </c>
+      <c r="G497" t="n">
+        <v>172</v>
+      </c>
+      <c r="H497" t="n">
+        <v>147433</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>11647473</v>
+      </c>
+      <c r="F498" t="n">
+        <v>106122</v>
+      </c>
+      <c r="G498" t="n">
+        <v>140</v>
+      </c>
+      <c r="H498" t="n">
+        <v>147573</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>11769921</v>
+      </c>
+      <c r="F499" t="n">
+        <v>119789</v>
+      </c>
+      <c r="G499" t="n">
+        <v>147</v>
+      </c>
+      <c r="H499" t="n">
+        <v>147720</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>11891292</v>
+      </c>
+      <c r="F500" t="n">
+        <v>122186</v>
+      </c>
+      <c r="G500" t="n">
+        <v>137</v>
+      </c>
+      <c r="H500" t="n">
+        <v>147857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -17421,6 +17421,142 @@
         <v>147857</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>12004920</v>
+      </c>
+      <c r="F501" t="n">
+        <v>113628</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0</v>
+      </c>
+      <c r="H501" t="n">
+        <v>147857</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>12112845</v>
+      </c>
+      <c r="F502" t="n">
+        <v>108893</v>
+      </c>
+      <c r="G502" t="n">
+        <v>3</v>
+      </c>
+      <c r="H502" t="n">
+        <v>147860</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>12209991</v>
+      </c>
+      <c r="F503" t="n">
+        <v>98515</v>
+      </c>
+      <c r="G503" t="n">
+        <v>143</v>
+      </c>
+      <c r="H503" t="n">
+        <v>148003</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>12338676</v>
+      </c>
+      <c r="F504" t="n">
+        <v>129471</v>
+      </c>
+      <c r="G504" t="n">
+        <v>18</v>
+      </c>
+      <c r="H504" t="n">
+        <v>148021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -17557,6 +17557,176 @@
         <v>148021</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>12559926</v>
+      </c>
+      <c r="F505" t="n">
+        <v>183037</v>
+      </c>
+      <c r="G505" t="n">
+        <v>57</v>
+      </c>
+      <c r="H505" t="n">
+        <v>148089</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>12748050</v>
+      </c>
+      <c r="F506" t="n">
+        <v>189213</v>
+      </c>
+      <c r="G506" t="n">
+        <v>332</v>
+      </c>
+      <c r="H506" t="n">
+        <v>148421</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>12937886</v>
+      </c>
+      <c r="F507" t="n">
+        <v>189846</v>
+      </c>
+      <c r="G507" t="n">
+        <v>203</v>
+      </c>
+      <c r="H507" t="n">
+        <v>148624</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>13100458</v>
+      </c>
+      <c r="F508" t="n">
+        <v>162572</v>
+      </c>
+      <c r="G508" t="n">
+        <v>154</v>
+      </c>
+      <c r="H508" t="n">
+        <v>148778</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>13235401</v>
+      </c>
+      <c r="F509" t="n">
+        <v>137583</v>
+      </c>
+      <c r="G509" t="n">
+        <v>73</v>
+      </c>
+      <c r="H509" t="n">
+        <v>148851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H509"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -17727,6 +17727,278 @@
         <v>148851</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>13422815</v>
+      </c>
+      <c r="F510" t="n">
+        <v>157758</v>
+      </c>
+      <c r="G510" t="n">
+        <v>42</v>
+      </c>
+      <c r="H510" t="n">
+        <v>148893</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>13641520</v>
+      </c>
+      <c r="F511" t="n">
+        <v>218724</v>
+      </c>
+      <c r="G511" t="n">
+        <v>48</v>
+      </c>
+      <c r="H511" t="n">
+        <v>148941</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>13835334</v>
+      </c>
+      <c r="F512" t="n">
+        <v>194747</v>
+      </c>
+      <c r="G512" t="n">
+        <v>334</v>
+      </c>
+      <c r="H512" t="n">
+        <v>149284</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>14015065</v>
+      </c>
+      <c r="F513" t="n">
+        <v>179756</v>
+      </c>
+      <c r="G513" t="n">
+        <v>231</v>
+      </c>
+      <c r="H513" t="n">
+        <v>149515</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>14193228</v>
+      </c>
+      <c r="F514" t="n">
+        <v>178250</v>
+      </c>
+      <c r="G514" t="n">
+        <v>229</v>
+      </c>
+      <c r="H514" t="n">
+        <v>149744</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>14333794</v>
+      </c>
+      <c r="F515" t="n">
+        <v>146390</v>
+      </c>
+      <c r="G515" t="n">
+        <v>313</v>
+      </c>
+      <c r="H515" t="n">
+        <v>150057</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>14475192</v>
+      </c>
+      <c r="F516" t="n">
+        <v>141472</v>
+      </c>
+      <c r="G516" t="n">
+        <v>97</v>
+      </c>
+      <c r="H516" t="n">
+        <v>150154</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>14617314</v>
+      </c>
+      <c r="F517" t="n">
+        <v>142224</v>
+      </c>
+      <c r="G517" t="n">
+        <v>77</v>
+      </c>
+      <c r="H517" t="n">
+        <v>150230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -17999,6 +17999,210 @@
         <v>150230</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>14732594</v>
+      </c>
+      <c r="F518" t="n">
+        <v>120821</v>
+      </c>
+      <c r="G518" t="n">
+        <v>379</v>
+      </c>
+      <c r="H518" t="n">
+        <v>150609</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>14862138</v>
+      </c>
+      <c r="F519" t="n">
+        <v>129587</v>
+      </c>
+      <c r="G519" t="n">
+        <v>398</v>
+      </c>
+      <c r="H519" t="n">
+        <v>151007</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>14967817</v>
+      </c>
+      <c r="F520" t="n">
+        <v>109133</v>
+      </c>
+      <c r="G520" t="n">
+        <v>335</v>
+      </c>
+      <c r="H520" t="n">
+        <v>151342</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>15066395</v>
+      </c>
+      <c r="F521" t="n">
+        <v>99652</v>
+      </c>
+      <c r="G521" t="n">
+        <v>270</v>
+      </c>
+      <c r="H521" t="n">
+        <v>151612</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>15147120</v>
+      </c>
+      <c r="F522" t="n">
+        <v>81713</v>
+      </c>
+      <c r="G522" t="n">
+        <v>287</v>
+      </c>
+      <c r="H522" t="n">
+        <v>151899</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>15217280</v>
+      </c>
+      <c r="F523" t="n">
+        <v>70924</v>
+      </c>
+      <c r="G523" t="n">
+        <v>88</v>
+      </c>
+      <c r="H523" t="n">
+        <v>151987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -18203,6 +18203,210 @@
         <v>151987</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>15305410</v>
+      </c>
+      <c r="F524" t="n">
+        <v>84429</v>
+      </c>
+      <c r="G524" t="n">
+        <v>85</v>
+      </c>
+      <c r="H524" t="n">
+        <v>152075</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>15399300</v>
+      </c>
+      <c r="F525" t="n">
+        <v>94432</v>
+      </c>
+      <c r="G525" t="n">
+        <v>438</v>
+      </c>
+      <c r="H525" t="n">
+        <v>152513</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>15506750</v>
+      </c>
+      <c r="F526" t="n">
+        <v>108069</v>
+      </c>
+      <c r="G526" t="n">
+        <v>359</v>
+      </c>
+      <c r="H526" t="n">
+        <v>152872</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>15613283</v>
+      </c>
+      <c r="F527" t="n">
+        <v>107364</v>
+      </c>
+      <c r="G527" t="n">
+        <v>330</v>
+      </c>
+      <c r="H527" t="n">
+        <v>153202</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>15709059</v>
+      </c>
+      <c r="F528" t="n">
+        <v>95787</v>
+      </c>
+      <c r="G528" t="n">
+        <v>288</v>
+      </c>
+      <c r="H528" t="n">
+        <v>153490</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2022-01-22</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>15784488</v>
+      </c>
+      <c r="F529" t="n">
+        <v>76807</v>
+      </c>
+      <c r="G529" t="n">
+        <v>297</v>
+      </c>
+      <c r="H529" t="n">
+        <v>153787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H537"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -18407,6 +18407,278 @@
         <v>153787</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2022-01-23</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>15859288</v>
+      </c>
+      <c r="F530" t="n">
+        <v>74799</v>
+      </c>
+      <c r="G530" t="n">
+        <v>75</v>
+      </c>
+      <c r="H530" t="n">
+        <v>153862</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>15953685</v>
+      </c>
+      <c r="F531" t="n">
+        <v>88447</v>
+      </c>
+      <c r="G531" t="n">
+        <v>56</v>
+      </c>
+      <c r="H531" t="n">
+        <v>153916</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>16047716</v>
+      </c>
+      <c r="F532" t="n">
+        <v>94326</v>
+      </c>
+      <c r="G532" t="n">
+        <v>439</v>
+      </c>
+      <c r="H532" t="n">
+        <v>154356</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>16149319</v>
+      </c>
+      <c r="F533" t="n">
+        <v>102292</v>
+      </c>
+      <c r="G533" t="n">
+        <v>346</v>
+      </c>
+      <c r="H533" t="n">
+        <v>154702</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>16245474</v>
+      </c>
+      <c r="F534" t="n">
+        <v>96871</v>
+      </c>
+      <c r="G534" t="n">
+        <v>338</v>
+      </c>
+      <c r="H534" t="n">
+        <v>155040</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>16333980</v>
+      </c>
+      <c r="F535" t="n">
+        <v>89176</v>
+      </c>
+      <c r="G535" t="n">
+        <v>277</v>
+      </c>
+      <c r="H535" t="n">
+        <v>155317</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2022-01-29</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>16406123</v>
+      </c>
+      <c r="F536" t="n">
+        <v>72727</v>
+      </c>
+      <c r="G536" t="n">
+        <v>296</v>
+      </c>
+      <c r="H536" t="n">
+        <v>155613</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2022-01-30</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>16468522</v>
+      </c>
+      <c r="F537" t="n">
+        <v>62399</v>
+      </c>
+      <c r="G537" t="n">
+        <v>85</v>
+      </c>
+      <c r="H537" t="n">
+        <v>155698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H537"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -18679,6 +18679,244 @@
         <v>155698</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>17315893</v>
+      </c>
+      <c r="F538" t="n">
+        <v>92368</v>
+      </c>
+      <c r="G538" t="n">
+        <v>51</v>
+      </c>
+      <c r="H538" t="n">
+        <v>155754</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>17428345</v>
+      </c>
+      <c r="F539" t="n">
+        <v>112458</v>
+      </c>
+      <c r="G539" t="n">
+        <v>219</v>
+      </c>
+      <c r="H539" t="n">
+        <v>156875</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>17515199</v>
+      </c>
+      <c r="F540" t="n">
+        <v>88085</v>
+      </c>
+      <c r="G540" t="n">
+        <v>534</v>
+      </c>
+      <c r="H540" t="n">
+        <v>157409</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2022-02-03</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>17607832</v>
+      </c>
+      <c r="F541" t="n">
+        <v>88171</v>
+      </c>
+      <c r="G541" t="n">
+        <v>303</v>
+      </c>
+      <c r="H541" t="n">
+        <v>157730</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>17689885</v>
+      </c>
+      <c r="F542" t="n">
+        <v>84053</v>
+      </c>
+      <c r="G542" t="n">
+        <v>254</v>
+      </c>
+      <c r="H542" t="n">
+        <v>157984</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>17749999</v>
+      </c>
+      <c r="F543" t="n">
+        <v>60578</v>
+      </c>
+      <c r="G543" t="n">
+        <v>259</v>
+      </c>
+      <c r="H543" t="n">
+        <v>158243</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>17803325</v>
+      </c>
+      <c r="F544" t="n">
+        <v>54095</v>
+      </c>
+      <c r="G544" t="n">
+        <v>75</v>
+      </c>
+      <c r="H544" t="n">
+        <v>158318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H551"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -18917,6 +18917,244 @@
         <v>158318</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>17866632</v>
+      </c>
+      <c r="F545" t="n">
+        <v>57623</v>
+      </c>
+      <c r="G545" t="n">
+        <v>45</v>
+      </c>
+      <c r="H545" t="n">
+        <v>158363</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>17932803</v>
+      </c>
+      <c r="F546" t="n">
+        <v>66183</v>
+      </c>
+      <c r="G546" t="n">
+        <v>314</v>
+      </c>
+      <c r="H546" t="n">
+        <v>158677</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>18000119</v>
+      </c>
+      <c r="F547" t="n">
+        <v>68214</v>
+      </c>
+      <c r="G547" t="n">
+        <v>276</v>
+      </c>
+      <c r="H547" t="n">
+        <v>158953</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>18162199</v>
+      </c>
+      <c r="F548" t="n">
+        <v>66638</v>
+      </c>
+      <c r="G548" t="n">
+        <v>206</v>
+      </c>
+      <c r="H548" t="n">
+        <v>159158</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>18220515</v>
+      </c>
+      <c r="F549" t="n">
+        <v>58899</v>
+      </c>
+      <c r="G549" t="n">
+        <v>193</v>
+      </c>
+      <c r="H549" t="n">
+        <v>159351</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>18266015</v>
+      </c>
+      <c r="F550" t="n">
+        <v>46025</v>
+      </c>
+      <c r="G550" t="n">
+        <v>167</v>
+      </c>
+      <c r="H550" t="n">
+        <v>159518</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>18306859</v>
+      </c>
+      <c r="F551" t="n">
+        <v>41270</v>
+      </c>
+      <c r="G551" t="n">
+        <v>52</v>
+      </c>
+      <c r="H551" t="n">
+        <v>159570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H558"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -19155,6 +19155,244 @@
         <v>159570</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>18348029</v>
+      </c>
+      <c r="F552" t="n">
+        <v>41648</v>
+      </c>
+      <c r="G552" t="n">
+        <v>35</v>
+      </c>
+      <c r="H552" t="n">
+        <v>159605</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>18393951</v>
+      </c>
+      <c r="F553" t="n">
+        <v>46186</v>
+      </c>
+      <c r="G553" t="n">
+        <v>234</v>
+      </c>
+      <c r="H553" t="n">
+        <v>159839</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>18447706</v>
+      </c>
+      <c r="F554" t="n">
+        <v>54218</v>
+      </c>
+      <c r="G554" t="n">
+        <v>199</v>
+      </c>
+      <c r="H554" t="n">
+        <v>160038</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>18499058</v>
+      </c>
+      <c r="F555" t="n">
+        <v>51899</v>
+      </c>
+      <c r="G555" t="n">
+        <v>183</v>
+      </c>
+      <c r="H555" t="n">
+        <v>160221</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>18546205</v>
+      </c>
+      <c r="F556" t="n">
+        <v>47685</v>
+      </c>
+      <c r="G556" t="n">
+        <v>158</v>
+      </c>
+      <c r="H556" t="n">
+        <v>160379</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2022-02-19</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>18580216</v>
+      </c>
+      <c r="F557" t="n">
+        <v>34377</v>
+      </c>
+      <c r="G557" t="n">
+        <v>128</v>
+      </c>
+      <c r="H557" t="n">
+        <v>160507</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2022-02-20</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>18605752</v>
+      </c>
+      <c r="F558" t="n">
+        <v>25696</v>
+      </c>
+      <c r="G558" t="n">
+        <v>74</v>
+      </c>
+      <c r="H558" t="n">
+        <v>160581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H558"/>
+  <dimension ref="A1:H563"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -19393,6 +19393,176 @@
         <v>160581</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2022-02-21</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>18654572</v>
+      </c>
+      <c r="F559" t="n">
+        <v>38409</v>
+      </c>
+      <c r="G559" t="n">
+        <v>15</v>
+      </c>
+      <c r="H559" t="n">
+        <v>160610</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>18695448</v>
+      </c>
+      <c r="F560" t="n">
+        <v>41130</v>
+      </c>
+      <c r="G560" t="n">
+        <v>205</v>
+      </c>
+      <c r="H560" t="n">
+        <v>160815</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>18734683</v>
+      </c>
+      <c r="F561" t="n">
+        <v>39656</v>
+      </c>
+      <c r="G561" t="n">
+        <v>164</v>
+      </c>
+      <c r="H561" t="n">
+        <v>160979</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>18773164</v>
+      </c>
+      <c r="F562" t="n">
+        <v>38933</v>
+      </c>
+      <c r="G562" t="n">
+        <v>125</v>
+      </c>
+      <c r="H562" t="n">
+        <v>161104</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>18804765</v>
+      </c>
+      <c r="F563" t="n">
+        <v>31933</v>
+      </c>
+      <c r="G563" t="n">
+        <v>120</v>
+      </c>
+      <c r="H563" t="n">
+        <v>161224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H563"/>
+  <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -19563,6 +19563,210 @@
         <v>161224</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>18886701</v>
+      </c>
+      <c r="F564" t="n">
+        <v>82451</v>
+      </c>
+      <c r="G564" t="n">
+        <v>138</v>
+      </c>
+      <c r="H564" t="n">
+        <v>161361</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>18985568</v>
+      </c>
+      <c r="F565" t="n">
+        <v>39000</v>
+      </c>
+      <c r="G565" t="n">
+        <v>194</v>
+      </c>
+      <c r="H565" t="n">
+        <v>161630</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>19029321</v>
+      </c>
+      <c r="F566" t="n">
+        <v>44017</v>
+      </c>
+      <c r="G566" t="n">
+        <v>74</v>
+      </c>
+      <c r="H566" t="n">
+        <v>161704</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>19074696</v>
+      </c>
+      <c r="F567" t="n">
+        <v>45656</v>
+      </c>
+      <c r="G567" t="n">
+        <v>194</v>
+      </c>
+      <c r="H567" t="n">
+        <v>161898</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>19119181</v>
+      </c>
+      <c r="F568" t="n">
+        <v>44740</v>
+      </c>
+      <c r="G568" t="n">
+        <v>110</v>
+      </c>
+      <c r="H568" t="n">
+        <v>162008</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>19245301</v>
+      </c>
+      <c r="F569" t="n">
+        <v>126604</v>
+      </c>
+      <c r="G569" t="n">
+        <v>139</v>
+      </c>
+      <c r="H569" t="n">
+        <v>162147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H569"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -19767,6 +19767,142 @@
         <v>162147</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>19307014</v>
+      </c>
+      <c r="F570" t="n">
+        <v>61900</v>
+      </c>
+      <c r="G570" t="n">
+        <v>212</v>
+      </c>
+      <c r="H570" t="n">
+        <v>162359</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>19373884</v>
+      </c>
+      <c r="F571" t="n">
+        <v>67159</v>
+      </c>
+      <c r="G571" t="n">
+        <v>123</v>
+      </c>
+      <c r="H571" t="n">
+        <v>162482</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>19457976</v>
+      </c>
+      <c r="F572" t="n">
+        <v>71259</v>
+      </c>
+      <c r="G572" t="n">
+        <v>142</v>
+      </c>
+      <c r="H572" t="n">
+        <v>162624</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>19530485</v>
+      </c>
+      <c r="F573" t="n">
+        <v>72898</v>
+      </c>
+      <c r="G573" t="n">
+        <v>114</v>
+      </c>
+      <c r="H573" t="n">
+        <v>162738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -19903,6 +19903,176 @@
         <v>162738</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>19700952</v>
+      </c>
+      <c r="F574" t="n">
+        <v>170985</v>
+      </c>
+      <c r="G574" t="n">
+        <v>135</v>
+      </c>
+      <c r="H574" t="n">
+        <v>162873</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>19820181</v>
+      </c>
+      <c r="F575" t="n">
+        <v>109802</v>
+      </c>
+      <c r="G575" t="n">
+        <v>200</v>
+      </c>
+      <c r="H575" t="n">
+        <v>163095</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>19911155</v>
+      </c>
+      <c r="F576" t="n">
+        <v>91345</v>
+      </c>
+      <c r="G576" t="n">
+        <v>153</v>
+      </c>
+      <c r="H576" t="n">
+        <v>163248</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>20001627</v>
+      </c>
+      <c r="F577" t="n">
+        <v>89717</v>
+      </c>
+      <c r="G577" t="n">
+        <v>138</v>
+      </c>
+      <c r="H577" t="n">
+        <v>163386</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>20093762</v>
+      </c>
+      <c r="F578" t="n">
+        <v>90349</v>
+      </c>
+      <c r="G578" t="n">
+        <v>126</v>
+      </c>
+      <c r="H578" t="n">
+        <v>163511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H578"/>
+  <dimension ref="A1:H583"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -20073,6 +20073,176 @@
         <v>163511</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>20319434</v>
+      </c>
+      <c r="F579" t="n">
+        <v>226524</v>
+      </c>
+      <c r="G579" t="n">
+        <v>169</v>
+      </c>
+      <c r="H579" t="n">
+        <v>163679</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>20413731</v>
+      </c>
+      <c r="F580" t="n">
+        <v>94524</v>
+      </c>
+      <c r="G580" t="n">
+        <v>250</v>
+      </c>
+      <c r="H580" t="n">
+        <v>163929</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>20515998</v>
+      </c>
+      <c r="F581" t="n">
+        <v>102483</v>
+      </c>
+      <c r="G581" t="n">
+        <v>194</v>
+      </c>
+      <c r="H581" t="n">
+        <v>164123</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>20613817</v>
+      </c>
+      <c r="F582" t="n">
+        <v>98204</v>
+      </c>
+      <c r="G582" t="n">
+        <v>165</v>
+      </c>
+      <c r="H582" t="n">
+        <v>164282</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>20691123</v>
+      </c>
+      <c r="F583" t="n">
+        <v>77509</v>
+      </c>
+      <c r="G583" t="n">
+        <v>172</v>
+      </c>
+      <c r="H583" t="n">
+        <v>164454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H583"/>
+  <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -20243,6 +20243,176 @@
         <v>164454</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>20905515</v>
+      </c>
+      <c r="F584" t="n">
+        <v>215001</v>
+      </c>
+      <c r="G584" t="n">
+        <v>217</v>
+      </c>
+      <c r="H584" t="n">
+        <v>164671</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>20986171</v>
+      </c>
+      <c r="F585" t="n">
+        <v>80830</v>
+      </c>
+      <c r="G585" t="n">
+        <v>303</v>
+      </c>
+      <c r="H585" t="n">
+        <v>164974</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>21073009</v>
+      </c>
+      <c r="F586" t="n">
+        <v>87188</v>
+      </c>
+      <c r="G586" t="n">
+        <v>213</v>
+      </c>
+      <c r="H586" t="n">
+        <v>165187</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>21147425</v>
+      </c>
+      <c r="F587" t="n">
+        <v>74720</v>
+      </c>
+      <c r="G587" t="n">
+        <v>192</v>
+      </c>
+      <c r="H587" t="n">
+        <v>165379</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>21216874</v>
+      </c>
+      <c r="F588" t="n">
+        <v>69811</v>
+      </c>
+      <c r="G588" t="n">
+        <v>191</v>
+      </c>
+      <c r="H588" t="n">
+        <v>165570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H588"/>
+  <dimension ref="A1:H597"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -20413,6 +20413,312 @@
         <v>165570</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>21359681</v>
+      </c>
+      <c r="F589" t="n">
+        <v>143382</v>
+      </c>
+      <c r="G589" t="n">
+        <v>210</v>
+      </c>
+      <c r="H589" t="n">
+        <v>165780</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>21410305</v>
+      </c>
+      <c r="F590" t="n">
+        <v>50202</v>
+      </c>
+      <c r="G590" t="n">
+        <v>368</v>
+      </c>
+      <c r="H590" t="n">
+        <v>166148</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>21461556</v>
+      </c>
+      <c r="F591" t="n">
+        <v>51253</v>
+      </c>
+      <c r="G591" t="n">
+        <v>233</v>
+      </c>
+      <c r="H591" t="n">
+        <v>169095</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>21508546</v>
+      </c>
+      <c r="F592" t="n">
+        <v>47126</v>
+      </c>
+      <c r="G592" t="n">
+        <v>317</v>
+      </c>
+      <c r="H592" t="n">
+        <v>169412</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>21549830</v>
+      </c>
+      <c r="F593" t="n">
+        <v>41384</v>
+      </c>
+      <c r="G593" t="n">
+        <v>347</v>
+      </c>
+      <c r="H593" t="n">
+        <v>169759</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>21641004</v>
+      </c>
+      <c r="F594" t="n">
+        <v>91304</v>
+      </c>
+      <c r="G594" t="n">
+        <v>348</v>
+      </c>
+      <c r="H594" t="n">
+        <v>170107</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>21679280</v>
+      </c>
+      <c r="F595" t="n">
+        <v>37819</v>
+      </c>
+      <c r="G595" t="n">
+        <v>288</v>
+      </c>
+      <c r="H595" t="n">
+        <v>170395</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>21715116</v>
+      </c>
+      <c r="F596" t="n">
+        <v>35926</v>
+      </c>
+      <c r="G596" t="n">
+        <v>651</v>
+      </c>
+      <c r="H596" t="n">
+        <v>171046</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>21747638</v>
+      </c>
+      <c r="F597" t="n">
+        <v>32608</v>
+      </c>
+      <c r="G597" t="n">
+        <v>350</v>
+      </c>
+      <c r="H597" t="n">
+        <v>171396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H597"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -20719,6 +20719,312 @@
         <v>171396</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>21863944</v>
+      </c>
+      <c r="F598" t="n">
+        <v>116227</v>
+      </c>
+      <c r="G598" t="n">
+        <v>482</v>
+      </c>
+      <c r="H598" t="n">
+        <v>171878</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>21890037</v>
+      </c>
+      <c r="F599" t="n">
+        <v>26147</v>
+      </c>
+      <c r="G599" t="n">
+        <v>508</v>
+      </c>
+      <c r="H599" t="n">
+        <v>172386</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>21909509</v>
+      </c>
+      <c r="F600" t="n">
+        <v>19482</v>
+      </c>
+      <c r="G600" t="n">
+        <v>646</v>
+      </c>
+      <c r="H600" t="n">
+        <v>173032</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>21933206</v>
+      </c>
+      <c r="F601" t="n">
+        <v>19795</v>
+      </c>
+      <c r="G601" t="n">
+        <v>284</v>
+      </c>
+      <c r="H601" t="n">
+        <v>173352</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>21978198</v>
+      </c>
+      <c r="F602" t="n">
+        <v>45077</v>
+      </c>
+      <c r="G602" t="n">
+        <v>341</v>
+      </c>
+      <c r="H602" t="n">
+        <v>173693</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>21994809</v>
+      </c>
+      <c r="F603" t="n">
+        <v>16579</v>
+      </c>
+      <c r="G603" t="n">
+        <v>451</v>
+      </c>
+      <c r="H603" t="n">
+        <v>174144</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>22011920</v>
+      </c>
+      <c r="F604" t="n">
+        <v>17224</v>
+      </c>
+      <c r="G604" t="n">
+        <v>304</v>
+      </c>
+      <c r="H604" t="n">
+        <v>174448</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>22025925</v>
+      </c>
+      <c r="F605" t="n">
+        <v>14030</v>
+      </c>
+      <c r="G605" t="n">
+        <v>248</v>
+      </c>
+      <c r="H605" t="n">
+        <v>174696</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>22038340</v>
+      </c>
+      <c r="F606" t="n">
+        <v>12421</v>
+      </c>
+      <c r="G606" t="n">
+        <v>216</v>
+      </c>
+      <c r="H606" t="n">
+        <v>174912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -21025,6 +21025,279 @@
         <v>174912</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>22073858</v>
+      </c>
+      <c r="F607" t="n">
+        <v>35635</v>
+      </c>
+      <c r="G607" t="n">
+        <v>407</v>
+      </c>
+      <c r="H607" t="n">
+        <v>175319</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>22090523</v>
+      </c>
+      <c r="F608" t="n">
+        <v>16611</v>
+      </c>
+      <c r="G608" t="n">
+        <v>227</v>
+      </c>
+      <c r="H608" t="n">
+        <v>175546</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>22102983</v>
+      </c>
+      <c r="F609" t="n">
+        <v>12487</v>
+      </c>
+      <c r="G609" t="n">
+        <v>438</v>
+      </c>
+      <c r="H609" t="n">
+        <v>175984</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>22114034</v>
+      </c>
+      <c r="F610" t="n">
+        <v>11076</v>
+      </c>
+      <c r="G610" t="n">
+        <v>228</v>
+      </c>
+      <c r="H610" t="n">
+        <v>176212</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2022-05-09</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>22140287</v>
+      </c>
+      <c r="F611" t="n">
+        <v>26280</v>
+      </c>
+      <c r="G611" t="n">
+        <v>212</v>
+      </c>
+      <c r="H611" t="n">
+        <v>176424</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2022-05-10</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>22144628</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>22145157</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>22159615</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>22159805</v>
+      </c>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
+      <c r="H615" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H617"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
       <selection activeCell="A496" sqref="A496"/>
@@ -21294,9 +21294,74 @@
       <c r="E615" t="n">
         <v>22159805</v>
       </c>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>22203799</v>
+      </c>
+      <c r="F616" t="n">
+        <v>22337</v>
+      </c>
+      <c r="G616" t="n">
+        <v>153</v>
+      </c>
+      <c r="H616" t="n">
+        <v>177410</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>K02000001</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>22232377</v>
+      </c>
+      <c r="F617" t="n">
+        <v>12208</v>
+      </c>
+      <c r="G617" t="n">
+        <v>169</v>
+      </c>
+      <c r="H617" t="n">
+        <v>177890</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid_totals.xlsx
+++ b/covid_totals.xlsx
@@ -416,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:H617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A496" sqref="A496"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="A607" sqref="A607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
